--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/01c5bdd1e4e6a47a/Documents/python ve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{3B727B75-90E0-46A5-A8F9-0927EBF3AE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8FC16DC-B45B-4C27-9653-42903B62BF60}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{3B727B75-90E0-46A5-A8F9-0927EBF3AE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF93B7BE-2804-4686-B815-7DCF9688EEDA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{86B58148-E525-4C21-A03C-60B42D7DD4FD}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{86B58148-E525-4C21-A03C-60B42D7DD4FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>NAME</t>
   </si>
@@ -95,54 +93,6 @@
     <t>Denzel Zhambe</t>
   </si>
   <si>
-    <t>700-00</t>
-  </si>
-  <si>
-    <t>680-00</t>
-  </si>
-  <si>
-    <t>500-00</t>
-  </si>
-  <si>
-    <t>600-00</t>
-  </si>
-  <si>
-    <t>550-00</t>
-  </si>
-  <si>
-    <t>750-00</t>
-  </si>
-  <si>
-    <t>100-00</t>
-  </si>
-  <si>
-    <t>80-00</t>
-  </si>
-  <si>
-    <t>79-00</t>
-  </si>
-  <si>
-    <t>54-00</t>
-  </si>
-  <si>
-    <t>97-00</t>
-  </si>
-  <si>
-    <t>0-00</t>
-  </si>
-  <si>
-    <t>40-00</t>
-  </si>
-  <si>
-    <t>76-00</t>
-  </si>
-  <si>
-    <t>23-00</t>
-  </si>
-  <si>
-    <t>65-00</t>
-  </si>
-  <si>
     <t>mandongwemichael@gmail.com</t>
   </si>
   <si>
@@ -162,24 +112,6 @@
   </si>
   <si>
     <t>NET SALARY</t>
-  </si>
-  <si>
-    <t>800-00</t>
-  </si>
-  <si>
-    <t>720-00</t>
-  </si>
-  <si>
-    <t>520-00</t>
-  </si>
-  <si>
-    <t>603-00</t>
-  </si>
-  <si>
-    <t>581-00</t>
-  </si>
-  <si>
-    <t>782-00</t>
   </si>
 </sst>
 </file>
@@ -249,13 +181,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -579,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E44C3A-DC18-44E6-AF23-5DD1D3CB49B3}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,10 +526,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -614,145 +545,145 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
+      <c r="D2">
+        <v>700</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>800</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>42</v>
+      <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4">
+        <v>680</v>
+      </c>
+      <c r="E3">
+        <v>80</v>
+      </c>
+      <c r="F3">
+        <v>40</v>
+      </c>
+      <c r="G3">
+        <v>720</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>43</v>
+      <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>500</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>80</v>
+      </c>
+      <c r="G4">
+        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>600</v>
+      </c>
+      <c r="E5">
+        <v>79</v>
+      </c>
+      <c r="F5">
+        <v>76</v>
+      </c>
+      <c r="G5">
+        <v>603</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>550</v>
+      </c>
+      <c r="E6">
+        <v>54</v>
+      </c>
+      <c r="F6">
+        <v>23</v>
+      </c>
+      <c r="G6">
+        <v>581</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
+      <c r="D7">
+        <v>750</v>
+      </c>
+      <c r="E7">
+        <v>97</v>
+      </c>
+      <c r="F7">
+        <v>65</v>
+      </c>
+      <c r="G7">
+        <v>782</v>
       </c>
     </row>
   </sheetData>
